--- a/CampoMagnético/Datos.xlsx
+++ b/CampoMagnético/Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="a=R" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,7 +20,6 @@
     <sheet name="Rotado 140 mm" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="K" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="Horizontal" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="Sheet13" sheetId="13" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t xml:space="preserve">z(cm)</t>
   </si>
@@ -52,16 +51,22 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">r=100mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin rotar</t>
+    <t xml:space="preserve">dB(mT)</t>
   </si>
   <si>
     <t xml:space="preserve">I(A)</t>
   </si>
   <si>
+    <t xml:space="preserve">dI(mA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">angulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dI(A)</t>
   </si>
 </sst>
 </file>
@@ -71,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,12 +97,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,12 +141,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,575 +163,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="DejaVu Sans"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="28800">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'a=R'!$G$2:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.00999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'a=R'!$H$2:$H$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>8.01773664307196</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.76148895479253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2743473084966</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.25462981714841</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.53263139945178</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.00776772960727</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.61773186466773</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.32242900481714</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.09517752818172</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.917678421446529</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.777030427038288</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.663930777787077</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.572109724239728</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.497545104727271</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.437411351436292</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.389723541030104</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.353107850862802</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.326640942441631</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.309735834727101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.302059660450913</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.303473625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.313988646080313</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.333732213326639</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.362923373619534</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.40185366769114</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.45087247136807</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.510375628821813</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.58079656891724</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.662599310704795</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.756272917857195</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.862327072933562</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.981288523363859</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.11369821065135</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.26010893851522</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.42108346876965</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.59719295865702</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.78901567226623</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.99713591311787</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.22214313611112</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.46463120562608</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.72519777326781</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="44524500"/>
-        <c:axId val="89996023"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="44524500"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89996023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="89996023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="DejaVu Sans"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44524500"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="DejaVu Sans"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>286920</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8345880" y="698040"/>
-        <a:ext cx="5758560" cy="3241440"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,8 +279,8 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,13 +322,8 @@
         <f aca="false">A2/100</f>
         <v>-0.06</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G2+0.09525)/0.1905)^2)^(3/2)+(1+(G2-0.09525)/0.1905)^2^(3/2))</f>
-        <v>8.01773664307196</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -912,14 +342,8 @@
         <f aca="false">A3/100</f>
         <v>-0.065</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">G2+0.01</f>
-        <v>-0.19</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G3+0.09525)/0.1905)^2)^(3/2)+(1+(G3-0.09525)/0.1905)^2^(3/2))</f>
-        <v>5.76148895479253</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -938,14 +362,8 @@
         <f aca="false">A4/100</f>
         <v>-0.07</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">G3+0.01</f>
-        <v>-0.18</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G4+0.09525)/0.1905)^2)^(3/2)+(1+(G4-0.09525)/0.1905)^2^(3/2))</f>
-        <v>4.2743473084966</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -964,14 +382,8 @@
         <f aca="false">A5/100</f>
         <v>-0.075</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">G4+0.01</f>
-        <v>-0.17</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G5+0.09525)/0.1905)^2)^(3/2)+(1+(G5-0.09525)/0.1905)^2^(3/2))</f>
-        <v>3.25462981714841</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -990,14 +402,8 @@
         <f aca="false">A6/100</f>
         <v>-0.08</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">G5+0.01</f>
-        <v>-0.16</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G6+0.09525)/0.1905)^2)^(3/2)+(1+(G6-0.09525)/0.1905)^2^(3/2))</f>
-        <v>2.53263139945178</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1016,14 +422,8 @@
         <f aca="false">A7/100</f>
         <v>-0.085</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">G6+0.01</f>
-        <v>-0.15</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G7+0.09525)/0.1905)^2)^(3/2)+(1+(G7-0.09525)/0.1905)^2^(3/2))</f>
-        <v>2.00776772960727</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -1042,14 +442,8 @@
         <f aca="false">A8/100</f>
         <v>-0.09</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">G7+0.01</f>
-        <v>-0.14</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G8+0.09525)/0.1905)^2)^(3/2)+(1+(G8-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.61773186466773</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1068,14 +462,8 @@
         <f aca="false">A9/100</f>
         <v>-0.095</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">G8+0.01</f>
-        <v>-0.13</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G9+0.09525)/0.1905)^2)^(3/2)+(1+(G9-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.32242900481714</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1094,14 +482,8 @@
         <f aca="false">A10/100</f>
         <v>-0.1</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">G9+0.01</f>
-        <v>-0.12</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G10+0.09525)/0.1905)^2)^(3/2)+(1+(G10-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.09517752818172</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1120,14 +502,8 @@
         <f aca="false">A11/100</f>
         <v>-0.105</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">G10+0.01</f>
-        <v>-0.11</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G11+0.09525)/0.1905)^2)^(3/2)+(1+(G11-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.917678421446529</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1146,14 +522,8 @@
         <f aca="false">A12/100</f>
         <v>-0.11</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">G11+0.01</f>
-        <v>-0.1</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G12+0.09525)/0.1905)^2)^(3/2)+(1+(G12-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.777030427038288</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1172,14 +542,8 @@
         <f aca="false">A13/100</f>
         <v>-0.115</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <f aca="false">G12+0.01</f>
-        <v>-0.09</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G13+0.09525)/0.1905)^2)^(3/2)+(1+(G13-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.663930777787077</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1198,14 +562,8 @@
         <f aca="false">A14/100</f>
         <v>-0.12</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <f aca="false">G13+0.01</f>
-        <v>-0.08</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G14+0.09525)/0.1905)^2)^(3/2)+(1+(G14-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.572109724239728</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1224,14 +582,8 @@
         <f aca="false">A15/100</f>
         <v>-0.125</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <f aca="false">G14+0.01</f>
-        <v>-0.07</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G15+0.09525)/0.1905)^2)^(3/2)+(1+(G15-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.497545104727271</v>
-      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1250,14 +602,8 @@
         <f aca="false">A16/100</f>
         <v>-0.13</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">G15+0.01</f>
-        <v>-0.06</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G16+0.09525)/0.1905)^2)^(3/2)+(1+(G16-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.437411351436292</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1276,14 +622,8 @@
         <f aca="false">A17/100</f>
         <v>-0.135</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <f aca="false">G16+0.01</f>
-        <v>-0.05</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G17+0.09525)/0.1905)^2)^(3/2)+(1+(G17-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.389723541030104</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -1302,14 +642,8 @@
         <f aca="false">A18/100</f>
         <v>-0.14</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <f aca="false">G17+0.01</f>
-        <v>-0.04</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G18+0.09525)/0.1905)^2)^(3/2)+(1+(G18-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.353107850862802</v>
-      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -1328,14 +662,8 @@
         <f aca="false">A19/100</f>
         <v>-0.145</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <f aca="false">G18+0.01</f>
-        <v>-0.03</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G19+0.09525)/0.1905)^2)^(3/2)+(1+(G19-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.326640942441631</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -1354,14 +682,8 @@
         <f aca="false">A20/100</f>
         <v>-0.15</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <f aca="false">G19+0.01</f>
-        <v>-0.02</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G20+0.09525)/0.1905)^2)^(3/2)+(1+(G20-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.309735834727101</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -1380,14 +702,8 @@
         <f aca="false">A21/100</f>
         <v>-0.155</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <f aca="false">G20+0.01</f>
-        <v>-0.00999999999999997</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G21+0.09525)/0.1905)^2)^(3/2)+(1+(G21-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.302059660450913</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1406,14 +722,8 @@
         <f aca="false">A22/100</f>
         <v>-0.16</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <f aca="false">G21+0.01</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G22+0.09525)/0.1905)^2)^(3/2)+(1+(G22-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.303473625</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -1432,14 +742,8 @@
         <f aca="false">A23/100</f>
         <v>-0.165</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <f aca="false">G22+0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G23+0.09525)/0.1905)^2)^(3/2)+(1+(G23-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.313988646080313</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1458,14 +762,8 @@
         <f aca="false">A24/100</f>
         <v>-0.17</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <f aca="false">G23+0.01</f>
-        <v>0.02</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G24+0.09525)/0.1905)^2)^(3/2)+(1+(G24-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.333732213326639</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1484,14 +782,8 @@
         <f aca="false">A25/100</f>
         <v>-0.175</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <f aca="false">G24+0.01</f>
-        <v>0.03</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G25+0.09525)/0.1905)^2)^(3/2)+(1+(G25-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.362923373619534</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1510,14 +802,8 @@
         <f aca="false">A26/100</f>
         <v>-0.18</v>
       </c>
-      <c r="G26" s="1" t="n">
-        <f aca="false">G25+0.01</f>
-        <v>0.04</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G26+0.09525)/0.1905)^2)^(3/2)+(1+(G26-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.40185366769114</v>
-      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -1536,14 +822,8 @@
         <f aca="false">A27/100</f>
         <v>-0.185</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <f aca="false">G26+0.01</f>
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G27+0.09525)/0.1905)^2)^(3/2)+(1+(G27-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.45087247136807</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1562,14 +842,8 @@
         <f aca="false">A28/100</f>
         <v>-0.19</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <f aca="false">G27+0.01</f>
-        <v>0.06</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G28+0.09525)/0.1905)^2)^(3/2)+(1+(G28-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.510375628821813</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -1588,14 +862,8 @@
         <f aca="false">A29/100</f>
         <v>0.005</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <f aca="false">G28+0.01</f>
-        <v>0.07</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G29+0.09525)/0.1905)^2)^(3/2)+(1+(G29-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.58079656891724</v>
-      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1614,14 +882,8 @@
         <f aca="false">A30/100</f>
         <v>0.01</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <f aca="false">G29+0.01</f>
-        <v>0.08</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G30+0.09525)/0.1905)^2)^(3/2)+(1+(G30-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.662599310704795</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -1640,14 +902,8 @@
         <f aca="false">A31/100</f>
         <v>0.015</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <f aca="false">G30+0.01</f>
-        <v>0.09</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G31+0.09525)/0.1905)^2)^(3/2)+(1+(G31-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.756272917857195</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -1666,14 +922,8 @@
         <f aca="false">A32/100</f>
         <v>0.02</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <f aca="false">G31+0.01</f>
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G32+0.09525)/0.1905)^2)^(3/2)+(1+(G32-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.862327072933562</v>
-      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1692,14 +942,8 @@
         <f aca="false">A33/100</f>
         <v>0.025</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <f aca="false">G32+0.01</f>
-        <v>0.11</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G33+0.09525)/0.1905)^2)^(3/2)+(1+(G33-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.981288523363859</v>
-      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -1718,14 +962,8 @@
         <f aca="false">A34/100</f>
         <v>0.03</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <f aca="false">G33+0.01</f>
-        <v>0.12</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G34+0.09525)/0.1905)^2)^(3/2)+(1+(G34-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.11369821065135</v>
-      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1744,14 +982,8 @@
         <f aca="false">A35/100</f>
         <v>0.035</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <f aca="false">G34+0.01</f>
-        <v>0.13</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G35+0.09525)/0.1905)^2)^(3/2)+(1+(G35-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.26010893851522</v>
-      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -1770,14 +1002,8 @@
         <f aca="false">A36/100</f>
         <v>0.04</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <f aca="false">G35+0.01</f>
-        <v>0.14</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G36+0.09525)/0.1905)^2)^(3/2)+(1+(G36-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.42108346876965</v>
-      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -1796,14 +1022,8 @@
         <f aca="false">A37/100</f>
         <v>0.045</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <f aca="false">G36+0.01</f>
-        <v>0.15</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G37+0.09525)/0.1905)^2)^(3/2)+(1+(G37-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.59719295865702</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -1822,14 +1042,8 @@
         <f aca="false">A38/100</f>
         <v>0.05</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <f aca="false">G37+0.01</f>
-        <v>0.16</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G38+0.09525)/0.1905)^2)^(3/2)+(1+(G38-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.78901567226623</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -1848,14 +1062,8 @@
         <f aca="false">A39/100</f>
         <v>0.055</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <f aca="false">G38+0.01</f>
-        <v>0.17</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G39+0.09525)/0.1905)^2)^(3/2)+(1+(G39-0.09525)/0.1905)^2^(3/2))</f>
-        <v>1.99713591311787</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -1874,14 +1082,8 @@
         <f aca="false">A40/100</f>
         <v>0.06</v>
       </c>
-      <c r="G40" s="1" t="n">
-        <f aca="false">G39+0.01</f>
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G40+0.09525)/0.1905)^2)^(3/2)+(1+(G40-0.09525)/0.1905)^2^(3/2))</f>
-        <v>2.22214313611112</v>
-      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1900,14 +1102,8 @@
         <f aca="false">A41/100</f>
         <v>0.065</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <f aca="false">G40+0.01</f>
-        <v>0.19</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G41+0.09525)/0.1905)^2)^(3/2)+(1+(G41-0.09525)/0.1905)^2^(3/2))</f>
-        <v>2.46463120562608</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -1926,14 +1122,8 @@
         <f aca="false">A42/100</f>
         <v>0.07</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <f aca="false">G41+0.01</f>
-        <v>0.2</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G42+0.09525)/0.1905)^2)^(3/2)+(1+(G42-0.09525)/0.1905)^2^(3/2))</f>
-        <v>2.72519777326781</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -1952,10 +1142,7 @@
         <f aca="false">A43/100</f>
         <v>0.075</v>
       </c>
-      <c r="H43" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G43+0.09525)/0.1905)^2)^(3/2)+(1+(G43-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.303473625</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -1974,10 +1161,7 @@
         <f aca="false">A44/100</f>
         <v>0.08</v>
       </c>
-      <c r="H44" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G44+0.09525)/0.1905)^2)^(3/2)+(1+(G44-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.303473625</v>
-      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -1996,10 +1180,7 @@
         <f aca="false">A45/100</f>
         <v>0.085</v>
       </c>
-      <c r="H45" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G45+0.09525)/0.1905)^2)^(3/2)+(1+(G45-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.303473625</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -2018,10 +1199,7 @@
         <f aca="false">A46/100</f>
         <v>0.09</v>
       </c>
-      <c r="H46" s="1" t="n">
-        <f aca="false">0.720333*((1/(1+(G46+0.09525)/0.1905)^2)^(3/2)+(1+(G46-0.09525)/0.1905)^2^(3/2))</f>
-        <v>0.303473625</v>
-      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -2607,7 +1785,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2616,188 +1793,320 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="G2:H46 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>-0.07</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>-0.07</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>-0.1</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>-0.13</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>-0.14</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>-0.11</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>-0.05</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.34</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>9.3</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.28</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.4</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.45</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.47</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.46</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.43</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.4</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.38</v>
       </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.36</v>
       </c>
+      <c r="C20" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.33</v>
       </c>
+      <c r="C21" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.29</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -2816,156 +2125,264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="G2:H46 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0.093</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.05</v>
+      <c r="B2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>0.117</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.07</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>0.154</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.09</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>0.197</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.11</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>0.243</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.15</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>0.278</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.17</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.22</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>0.404</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.26</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.3</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.34</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>0.605</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.39</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.46</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>0.781</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.52</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>0.896</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.59</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>0.957</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.62</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>1.074</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.73</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>1.181</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.78</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2984,333 +2401,212 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="G2:H46 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.488</v>
+      <c r="A2" s="2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1.364</v>
+      <c r="A3" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1.225</v>
+      <c r="A4" s="2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.118</v>
+      <c r="A5" s="2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1.025</v>
+      <c r="A6" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.883</v>
+      <c r="A7" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.593</v>
+      <c r="A8" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.7</v>
+      <c r="A9" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.233</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.181</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.149</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0.132</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.1</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="D10" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.726</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.343</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.233</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.172</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>116</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.042</v>
+      <c r="F10" s="2" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +2628,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="G2:H46 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3888,7 +3184,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
+      <selection pane="topLeft" activeCell="D62" activeCellId="1" sqref="G2:H46 D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3908,10 +3204,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.56</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -3922,10 +3218,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.57</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -3936,10 +3232,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.56</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -3950,10 +3246,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3.1</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.56</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -3964,10 +3260,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.57</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -3978,10 +3274,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.58</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -3992,10 +3288,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6.1</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.59</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -4006,10 +3302,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -4020,10 +3316,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8.1</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.63</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -4034,10 +3330,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>9.1</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.65</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -4048,10 +3344,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>10.1</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.66</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -4062,10 +3358,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11.1</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.69</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -4076,10 +3372,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.71</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -4090,10 +3386,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.73</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -4104,10 +3400,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14.1</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -4118,10 +3414,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15.1</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.76</v>
       </c>
       <c r="C17" s="1" t="n">
@@ -4132,10 +3428,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16.1</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.77</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -4146,10 +3442,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.55</v>
       </c>
       <c r="C19" s="1" t="n">
@@ -4160,10 +3456,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.55</v>
       </c>
       <c r="C20" s="1" t="n">
@@ -4174,10 +3470,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.56</v>
       </c>
       <c r="C21" s="1" t="n">
@@ -4188,10 +3484,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.57</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -4202,10 +3498,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>0.58</v>
       </c>
       <c r="C23" s="1" t="n">
@@ -4216,10 +3512,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>0.59</v>
       </c>
       <c r="C24" s="1" t="n">
@@ -4230,10 +3526,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>0.61</v>
       </c>
       <c r="C25" s="1" t="n">
@@ -4244,10 +3540,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>0.62</v>
       </c>
       <c r="C26" s="1" t="n">
@@ -4258,10 +3554,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>0.63</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -4272,10 +3568,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>0.65</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -4286,10 +3582,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>0.68</v>
       </c>
       <c r="C29" s="1" t="n">
@@ -4300,10 +3596,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>0.69</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -4314,10 +3610,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>0.72</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -4328,10 +3624,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>0.74</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -4342,10 +3638,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>-14</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>0.76</v>
       </c>
       <c r="C33" s="1" t="n">
@@ -4356,10 +3652,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>-15</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>0.77</v>
       </c>
       <c r="C34" s="1" t="n">
@@ -4370,10 +3666,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>0.77</v>
       </c>
       <c r="C35" s="1" t="n">
@@ -4384,10 +3680,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>-17</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>0.77</v>
       </c>
       <c r="C36" s="1" t="n">
@@ -4398,10 +3694,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>0.78</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -4412,10 +3708,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>0.77</v>
       </c>
       <c r="C38" s="1" t="n">
@@ -4426,10 +3722,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="C39" s="1" t="n">
@@ -4440,10 +3736,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>0.74</v>
       </c>
       <c r="C40" s="1" t="n">
@@ -4454,10 +3750,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>-22</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>0.72</v>
       </c>
       <c r="C41" s="1" t="n">
@@ -4468,10 +3764,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="C42" s="1" t="n">
@@ -4482,10 +3778,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="2" t="n">
         <v>-24</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>0.68</v>
       </c>
       <c r="C43" s="1" t="n">
@@ -4496,10 +3792,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="2" t="n">
         <v>-25</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>0.64</v>
       </c>
       <c r="C44" s="1" t="n">
@@ -4510,10 +3806,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="2" t="n">
         <v>-26</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>0.61</v>
       </c>
       <c r="C45" s="1" t="n">
@@ -4524,10 +3820,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>0.58</v>
       </c>
       <c r="C46" s="1" t="n">
@@ -4538,10 +3834,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="2" t="n">
         <v>-28</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>0.54</v>
       </c>
       <c r="C47" s="1" t="n">
@@ -4552,10 +3848,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="2" t="n">
         <v>26.4</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>0.63</v>
       </c>
       <c r="C48" s="1" t="n">
@@ -4566,10 +3862,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="2" t="n">
         <v>0.64</v>
       </c>
       <c r="C49" s="1" t="n">
@@ -4580,10 +3876,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="2" t="n">
         <v>24.4</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="2" t="n">
         <v>0.67</v>
       </c>
       <c r="C50" s="1" t="n">
@@ -4594,10 +3890,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="C51" s="1" t="n">
@@ -4608,10 +3904,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="2" t="n">
         <v>22.4</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="2" t="n">
         <v>0.72</v>
       </c>
       <c r="C52" s="1" t="n">
@@ -4622,10 +3918,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="2" t="n">
         <v>21.4</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="C53" s="1" t="n">
@@ -4636,10 +3932,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="2" t="n">
         <v>0.76</v>
       </c>
       <c r="C54" s="1" t="n">
@@ -4650,10 +3946,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="2" t="n">
         <v>19.4</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="2" t="n">
         <v>0.77</v>
       </c>
       <c r="C55" s="1" t="n">
@@ -4664,10 +3960,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="2" t="n">
         <v>18.4</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="2" t="n">
         <v>0.78</v>
       </c>
       <c r="C56" s="1" t="n">
@@ -4678,10 +3974,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="2" t="n">
         <v>17.4</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="2" t="n">
         <v>0.78</v>
       </c>
       <c r="C57" s="1" t="n">
@@ -4707,178 +4003,292 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="G2:H46 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>1.01</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="B8" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="B9" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1.08</v>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>1.03</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.96</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.88</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.8</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.73</v>
       </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.65</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -4897,172 +4307,292 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G2:H46 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.84</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.92</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.94</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.97</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>1.03</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>1.1</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>1.15</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>1.2</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>1.29</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>1.23</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>1.21</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.15</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>1.09</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>1.01</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.91</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.83</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.75</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.69</v>
       </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.63</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -5081,172 +4611,292 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G2:H46 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.79</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.8</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.84</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.9</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.99</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>1.1</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>1.23</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>1.37</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>1.5</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>1.55</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>1.52</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.39</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>1.23</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>1.08</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.92</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.79</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.68</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.61</v>
       </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.54</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -5265,180 +4915,306 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="G2:H46 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>-0.01</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>-0.02</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>-0.01</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.03</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.05</v>
+      <c r="B8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.07</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8.2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.14</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.16</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.19</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.21</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.23</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.24</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.24</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.24</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.24</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.22</v>
       </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.21</v>
       </c>
+      <c r="C20" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.2</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -5457,180 +5233,306 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="1" sqref="G2:H46 E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>-0.05</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>-0.18</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>-0.28</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>-0.42</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>-0.47</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>-0.5</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>-0.34</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>-0.24</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8.4</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.58</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.71</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.78</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.76</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.71</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.66</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.58</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.52</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.44</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.4</v>
       </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.36</v>
       </c>
+      <c r="C20" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.32</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -5649,163 +5551,277 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="G2:H46 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="C5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C13" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C15" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="C16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="C17" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="C18" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>0.02</v>
       </c>
     </row>
